--- a/docs/mcode/oncocore-CancerRelatedSurgicalProcedure.xlsx
+++ b/docs/mcode/oncocore-CancerRelatedSurgicalProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="338">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>oncocore-CancerRelatedSurgicalProcedure</t>
   </si>
   <si>
-    <t>A surgical action addressing a cancer condition, independent of action context.</t>
+    <t>A surgical action addressing a cancer condition.</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -194,19 +194,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Procedure.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Procedure.meta.extension</t>
+    <t>Procedure.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Procedure.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Procedure.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Procedure.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Procedure.extension</t>
   </si>
   <si>
     <t>extensions
@@ -220,543 +299,405 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>statementdatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t>reasoncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+  </si>
+  <si>
+    <t>Procedure.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Procedure.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/CancerDisorderVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>reasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as reference to a condition or observation.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Procedure.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerCondition]]}
+</t>
+  </si>
+  <si>
+    <t>CancerCondition</t>
+  </si>
+  <si>
+    <t>Abstract class for describing a primary or secondary metastatic neoplastic diseases.</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+</t>
+  </si>
+  <si>
+    <t>A procedure that has been performed.</t>
+  </si>
+  <si>
+    <t>treatmentintent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
+  </si>
+  <si>
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>Procedure.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Procedure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>External Identifiers for this procedure</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
+  </si>
+  <si>
+    <t>Need to allow connection to a wider workflow.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+  </si>
+  <si>
+    <t>Procedure.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+</t>
+  </si>
+  <si>
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Procedure.status</t>
+  </si>
+  <si>
+    <t>in-progress | aborted | completed | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
+  </si>
+  <si>
+    <t>Procedure.category</t>
+  </si>
+  <si>
+    <t>Classification of the procedure</t>
+  </si>
+  <si>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t>SNOMED-CT | ICD-10 | CPT-4</t>
+  </si>
+  <si>
+    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/SurgicalProcedureVS</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.notPerformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>True if procedure was not performed as scheduled</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
+  </si>
+  <si>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>Procedure.reasonNotPerformed</t>
+  </si>
+  <si>
+    <t>Reason procedure was not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the procedure was not performed.</t>
+  </si>
+  <si>
+    <t>A code that identifies the reason a procedure was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro-1
+</t>
+  </si>
+  <si>
+    <t>.reason.Observation.value</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite</t>
+  </si>
+  <si>
+    <t>Target body sites</t>
+  </si>
+  <si>
+    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.id</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Procedure.meta.security</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An anatomical landmark that helps determine a body location.</t>
+  </si>
+  <si>
+    <t>surgicalbodylocationrole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SurgicalBodyLocationRole-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Describes the role played by the body site in the surgery.</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Procedure.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Procedure.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Procedure.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Procedure.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Procedure.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Procedure.extension</t>
-  </si>
-  <si>
-    <t>Procedure:argoprofile.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>statementdatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The point in time when the statement was created.</t>
-  </si>
-  <si>
-    <t>reasoncode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
-  </si>
-  <si>
-    <t>Procedure.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Procedure.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Procedure.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerDisorderVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
-</t>
-  </si>
-  <si>
-    <t>A procedure that has been performed.</t>
-  </si>
-  <si>
-    <t>treatmentintent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
-  </si>
-  <si>
-    <t>Procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Procedure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>External Identifiers for this procedure</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
-  </si>
-  <si>
-    <t>Need to allow connection to a wider workflow.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
-  </si>
-  <si>
-    <t>Procedure.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>Who the procedure was performed on</t>
-  </si>
-  <si>
-    <t>The person, animal or group on which the procedure was performed.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>in-progress | aborted | completed | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
-  </si>
-  <si>
-    <t>Procedure.category</t>
-  </si>
-  <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t>SNOMED-CT | ICD-10 | CPT-4</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/SurgicalProcedureVS</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.notPerformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>True if procedure was not performed as scheduled</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
-  </si>
-  <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>Procedure.reasonNotPerformed</t>
-  </si>
-  <si>
-    <t>Reason procedure was not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the procedure was not performed.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro-1
-</t>
-  </si>
-  <si>
-    <t>.reason.Observation.value</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite</t>
-  </si>
-  <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.id</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.extension</t>
-  </si>
-  <si>
-    <t>locationqualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
-  </si>
-  <si>
-    <t>surgicalbodylocationrole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SurgicalBodyLocationRole-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Describes the role played by the body site in the surgery.</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.coding</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1041,7 +982,7 @@
     <t>Procedure.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
 </t>
   </si>
   <si>
@@ -1281,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM72"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1291,7 +1232,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1313,8 +1254,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.44140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.63671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1785,21 +1726,23 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1821,7 +1764,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>39</v>
@@ -1847,11 +1790,15 @@
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
@@ -1859,7 +1806,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1870,18 +1817,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1925,16 +1872,16 @@
         <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1951,11 +1898,15 @@
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
@@ -1963,7 +1914,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1974,11 +1925,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1994,19 +1945,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2029,7 +1980,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>39</v>
@@ -2055,19 +2006,23 @@
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2078,18 +2033,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2098,19 +2053,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2133,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>39</v>
@@ -2159,11 +2114,15 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2171,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2182,11 +2141,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2202,19 +2161,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2237,7 +2196,7 @@
         <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>39</v>
@@ -2252,22 +2211,24 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2275,7 +2236,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2286,9 +2247,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2297,7 +2260,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2306,20 +2269,16 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2341,16 +2300,16 @@
         <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -2367,11 +2326,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2390,9 +2353,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2401,7 +2366,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2410,20 +2375,16 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2445,13 +2406,13 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>39</v>
@@ -2471,11 +2432,15 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2494,7 +2459,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2511,23 +2476,21 @@
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2549,7 +2512,7 @@
         <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>39</v>
@@ -2576,7 +2539,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2591,7 +2554,7 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>39</v>
@@ -2602,7 +2565,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2613,7 +2576,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
@@ -2625,17 +2588,15 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2657,16 +2618,16 @@
         <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2684,13 +2645,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2710,15 +2671,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>48</v>
@@ -2733,24 +2694,22 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>39</v>
@@ -2765,7 +2724,7 @@
         <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>39</v>
@@ -2792,22 +2751,22 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2818,18 +2777,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2841,17 +2800,15 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2873,16 +2830,14 @@
         <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2900,13 +2855,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2915,7 +2870,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2926,20 +2881,20 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2951,17 +2906,13 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2998,17 +2949,19 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3023,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3034,11 +2987,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3059,11 +3010,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3087,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>39</v>
@@ -3114,13 +3067,13 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -3129,7 +3082,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3140,11 +3093,9 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3153,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3165,11 +3116,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3193,7 +3146,7 @@
         <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>39</v>
@@ -3220,7 +3173,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3246,7 +3199,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3254,7 +3207,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>48</v>
@@ -3269,13 +3222,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3284,7 +3237,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>39</v>
@@ -3326,10 +3279,10 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>48</v>
@@ -3341,7 +3294,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3352,7 +3305,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3360,10 +3313,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3375,13 +3328,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3432,13 +3385,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3447,7 +3400,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3458,15 +3411,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3481,13 +3436,11 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3496,7 +3449,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>39</v>
@@ -3511,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3538,13 +3491,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3553,7 +3506,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3564,7 +3517,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3572,7 +3525,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
@@ -3587,13 +3540,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3620,11 +3573,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3642,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3657,7 +3612,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3668,11 +3623,9 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3681,7 +3634,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3693,11 +3646,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3721,7 +3676,7 @@
         <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>39</v>
@@ -3748,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3774,7 +3729,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3782,7 +3737,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>48</v>
@@ -3797,13 +3752,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3812,7 +3767,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>39</v>
@@ -3854,10 +3809,10 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>48</v>
@@ -3869,7 +3824,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3880,7 +3835,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3888,10 +3843,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3903,13 +3858,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3960,13 +3915,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3975,7 +3930,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3984,23 +3939,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -4009,13 +3966,11 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4024,7 +3979,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>39</v>
@@ -4039,7 +3994,7 @@
         <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>39</v>
@@ -4066,13 +4021,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4081,7 +4036,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -4090,23 +4045,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
@@ -4115,13 +4072,11 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4145,7 +4100,7 @@
         <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>39</v>
@@ -4172,13 +4127,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4187,7 +4142,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4198,38 +4153,40 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4278,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4293,7 +4250,7 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -4304,7 +4261,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4315,7 +4272,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -4324,19 +4281,21 @@
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4357,7 +4316,7 @@
         <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>39</v>
@@ -4384,13 +4343,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4399,18 +4358,18 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4418,13 +4377,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>39</v>
@@ -4433,13 +4392,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4463,7 +4422,7 @@
         <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>39</v>
@@ -4490,13 +4449,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4505,18 +4464,18 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4530,22 +4489,22 @@
         <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4554,7 +4513,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>39</v>
@@ -4569,16 +4528,14 @@
         <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4596,7 +4553,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>48</v>
@@ -4611,7 +4568,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4622,7 +4579,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4630,7 +4587,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
@@ -4642,16 +4599,16 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4675,16 +4632,16 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4702,7 +4659,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4717,7 +4674,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4726,25 +4683,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -4753,11 +4708,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4784,13 +4741,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4808,13 +4763,13 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -4823,29 +4778,29 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4857,20 +4812,18 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -4916,13 +4869,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4931,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4942,7 +4895,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4953,7 +4906,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4962,21 +4915,19 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5000,13 +4951,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5024,7 +4975,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5033,24 +4984,24 @@
         <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5058,28 +5009,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5106,13 +5057,11 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5130,13 +5079,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -5145,18 +5094,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5164,28 +5113,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5209,14 +5158,16 @@
         <v>39</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -5233,15 +5184,11 @@
       <c r="AD37" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5249,7 +5196,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5260,18 +5207,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>39</v>
@@ -5280,18 +5227,20 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5313,41 +5262,35 @@
         <v>39</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5355,7 +5298,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5364,23 +5307,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -5389,13 +5334,11 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5419,38 +5362,40 @@
         <v>39</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AF39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5459,20 +5404,22 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>203</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5481,30 +5428,28 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="K40" t="s" s="2">
         <v>206</v>
       </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
         <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
@@ -5523,7 +5468,7 @@
         <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>39</v>
@@ -5550,13 +5495,13 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -5565,7 +5510,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5576,9 +5521,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5587,7 +5534,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5599,13 +5546,11 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5629,16 +5574,16 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>39</v>
@@ -5656,7 +5601,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5665,13 +5610,13 @@
         <v>41</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5682,9 +5627,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5702,16 +5649,14 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5735,14 +5680,16 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5760,7 +5707,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5775,18 +5722,18 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5797,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5806,19 +5753,23 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5877,29 +5828,29 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5908,21 +5859,23 @@
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5958,14 +5911,16 @@
         <v>39</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
@@ -5979,22 +5934,20 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6003,7 +5956,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -6012,16 +5965,20 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="L45" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6043,16 +6000,16 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
@@ -6070,13 +6027,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -6085,7 +6042,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6096,11 +6053,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6118,14 +6073,16 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="L46" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6149,7 +6106,7 @@
         <v>39</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
         <v>39</v>
@@ -6176,7 +6133,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6191,7 +6148,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6202,11 +6159,9 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6215,7 +6170,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6227,11 +6182,13 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="L47" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6255,7 +6212,7 @@
         <v>39</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>39</v>
@@ -6282,13 +6239,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6297,7 +6254,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6308,11 +6265,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6328,23 +6285,21 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6365,7 +6320,7 @@
         <v>39</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>39</v>
@@ -6391,11 +6346,15 @@
       <c r="AD48" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6403,54 +6362,52 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6471,7 +6428,7 @@
         <v>39</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>39</v>
@@ -6497,11 +6454,15 @@
       <c r="AD49" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6509,18 +6470,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6543,17 +6504,15 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6578,13 +6537,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6602,7 +6561,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6617,18 +6576,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6639,7 +6598,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -6651,13 +6610,13 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6684,13 +6643,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -6708,13 +6667,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6723,18 +6682,18 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6742,13 +6701,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>39</v>
@@ -6757,13 +6716,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6814,7 +6773,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6829,29 +6788,29 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6860,20 +6819,18 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6922,13 +6879,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6937,52 +6894,52 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>39</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I54" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>39</v>
       </c>
@@ -7030,13 +6987,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7045,10 +7002,10 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7056,7 +7013,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7079,15 +7036,17 @@
         <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7112,13 +7071,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -7136,7 +7095,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7151,18 +7110,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>273</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7173,7 +7132,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -7182,18 +7141,20 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7218,13 +7179,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7242,13 +7203,13 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -7257,18 +7218,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>280</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7276,13 +7237,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
@@ -7291,15 +7252,17 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7324,13 +7287,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7348,13 +7311,13 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -7363,18 +7326,18 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>287</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7385,7 +7348,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7394,16 +7357,16 @@
         <v>39</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7430,13 +7393,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7454,13 +7417,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7469,18 +7432,18 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7500,21 +7463,19 @@
         <v>39</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
       </c>
@@ -7562,7 +7523,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7580,7 +7541,7 @@
         <v>39</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7588,7 +7549,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7599,7 +7560,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7608,20 +7569,18 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7646,13 +7605,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>306</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7670,13 +7629,13 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -7685,18 +7644,18 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>39</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7719,17 +7678,15 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7778,7 +7735,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7793,7 +7750,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7804,7 +7761,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7815,7 +7772,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
@@ -7827,17 +7784,15 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -7862,13 +7817,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
@@ -7886,13 +7841,13 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -7901,7 +7856,7 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -7916,7 +7871,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7935,15 +7890,17 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -7968,13 +7925,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8007,7 +7964,7 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
@@ -8018,38 +7975,40 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>39</v>
@@ -8098,13 +8057,13 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -8113,7 +8072,7 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
@@ -8124,7 +8083,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8135,7 +8094,7 @@
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8147,13 +8106,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>332</v>
+        <v>115</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8180,13 +8139,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
@@ -8204,13 +8163,13 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -8219,18 +8178,18 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>336</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8238,10 +8197,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
@@ -8253,13 +8212,13 @@
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8310,13 +8269,13 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -8336,7 +8295,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8347,7 +8306,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8359,16 +8318,20 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>39</v>
       </c>
@@ -8416,13 +8379,13 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -8431,555 +8394,17 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL72" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL72">
+  <autoFilter ref="A1:AL67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8989,7 +8414,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
